--- a/data/trans_orig/iP30KDB7_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB7_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23ECEA8B-768D-417D-BA53-92059C4A0B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A2FDF4-C2F5-4001-8C89-F8F6172319CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E7F2444-942E-48C9-A1AE-E3BFC27E624F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{9310F182-5F9E-49FC-84B2-EB38CDE30FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman 2 yogures y/o 40 g de queso cada día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
     <t>52,15%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>47,85%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
+    <t>65,15%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64357ED-8217-47D6-B84E-F0EDACCC499B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE688A7-606B-409A-91D9-3AE8F773A1BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>3701</v>
+        <v>63192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="I4" s="7">
-        <v>7064</v>
+        <v>81897</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N4" s="7">
-        <v>10765</v>
+        <v>145090</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>7696</v>
+        <v>51059</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>8935</v>
+        <v>54918</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="N5" s="7">
-        <v>16630</v>
+        <v>105976</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="D7" s="7">
-        <v>70854</v>
+        <v>105217</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="I7" s="7">
-        <v>57677</v>
+        <v>127427</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N7" s="7">
-        <v>128531</v>
+        <v>232645</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>41594</v>
+        <v>80897</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="I8" s="7">
-        <v>43958</v>
+        <v>120093</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="N8" s="7">
-        <v>85552</v>
+        <v>200989</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="D10" s="7">
-        <v>126688</v>
+        <v>82546</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="I10" s="7">
-        <v>107604</v>
+        <v>86073</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>324</v>
+        <v>218</v>
       </c>
       <c r="N10" s="7">
-        <v>234292</v>
+        <v>168619</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>116225</v>
+        <v>105703</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I11" s="7">
-        <v>80313</v>
+        <v>97016</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="N11" s="7">
-        <v>196538</v>
+        <v>202720</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="D13" s="7">
-        <v>79998</v>
+        <v>110904</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>81930</v>
+        <v>110195</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="N13" s="7">
-        <v>161928</v>
+        <v>221100</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>91121</v>
+        <v>53615</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I14" s="7">
-        <v>84638</v>
+        <v>67114</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="N14" s="7">
-        <v>175759</v>
+        <v>120728</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>142</v>
+        <v>535</v>
       </c>
       <c r="D16" s="7">
-        <v>106994</v>
+        <v>361860</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>505</v>
+      </c>
+      <c r="I16" s="7">
+        <v>405593</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>156</v>
-      </c>
-      <c r="I16" s="7">
-        <v>113536</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1040</v>
+      </c>
+      <c r="N16" s="7">
+        <v>767453</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>298</v>
-      </c>
-      <c r="N16" s="7">
-        <v>220531</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="D17" s="7">
-        <v>64462</v>
+        <v>291274</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>435</v>
+      </c>
+      <c r="I17" s="7">
+        <v>339140</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7">
-        <v>54954</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>815</v>
+      </c>
+      <c r="N17" s="7">
+        <v>630414</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>169</v>
-      </c>
-      <c r="N17" s="7">
-        <v>119416</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>505</v>
-      </c>
-      <c r="D19" s="7">
-        <v>388234</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>535</v>
-      </c>
-      <c r="I19" s="7">
-        <v>367812</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1040</v>
-      </c>
-      <c r="N19" s="7">
-        <v>756046</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>435</v>
-      </c>
-      <c r="D20" s="7">
-        <v>321099</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>380</v>
-      </c>
-      <c r="I20" s="7">
-        <v>272797</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>815</v>
-      </c>
-      <c r="N20" s="7">
-        <v>593896</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
